--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Nppc-Npr3.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Nppc-Npr3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>MuSCs</t>
   </si>
   <si>
@@ -83,9 +86,6 @@
   </si>
   <si>
     <t>Npr3</t>
-  </si>
-  <si>
-    <t>ECs</t>
   </si>
   <si>
     <t>FAPs</t>
@@ -446,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T3"/>
+  <dimension ref="A1:T5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,31 +519,31 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>2.065932333333333</v>
+        <v>0.224617</v>
       </c>
       <c r="H2">
-        <v>6.197797</v>
+        <v>0.673851</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>0.7269197784238318</v>
       </c>
       <c r="J2">
-        <v>1</v>
+        <v>0.7269197784238318</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -552,28 +552,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>0.3190146666666667</v>
+        <v>0.2689956666666667</v>
       </c>
       <c r="N2">
-        <v>0.9570440000000001</v>
+        <v>0.806987</v>
       </c>
       <c r="O2">
-        <v>0.1466753431539481</v>
+        <v>0.1265890356442505</v>
       </c>
       <c r="P2">
-        <v>0.1466753431539481</v>
+        <v>0.1265890356442505</v>
       </c>
       <c r="Q2">
-        <v>0.6590627146742223</v>
+        <v>0.06042099965966666</v>
       </c>
       <c r="R2">
-        <v>5.931564432068</v>
+        <v>0.543788996937</v>
       </c>
       <c r="S2">
-        <v>0.1466753431539481</v>
+        <v>0.09202007374140514</v>
       </c>
       <c r="T2">
-        <v>0.1466753431539481</v>
+        <v>0.09202007374140514</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -581,31 +581,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D3" t="s">
         <v>24</v>
       </c>
       <c r="E3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>2.065932333333333</v>
+        <v>0.224617</v>
       </c>
       <c r="H3">
-        <v>6.197797</v>
+        <v>0.673851</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>0.7269197784238318</v>
       </c>
       <c r="J3">
-        <v>1</v>
+        <v>0.7269197784238318</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,146 @@
         <v>5.567869999999999</v>
       </c>
       <c r="O3">
-        <v>0.8533246568460519</v>
+        <v>0.8734109643557494</v>
       </c>
       <c r="P3">
-        <v>0.853324656846052</v>
+        <v>0.8734109643557494</v>
       </c>
       <c r="Q3">
-        <v>3.834280886932221</v>
+        <v>0.4168794185966666</v>
       </c>
       <c r="R3">
-        <v>34.50852798238999</v>
+        <v>3.751914767369999</v>
       </c>
       <c r="S3">
-        <v>0.8533246568460519</v>
+        <v>0.6348997046824266</v>
       </c>
       <c r="T3">
-        <v>0.853324656846052</v>
+        <v>0.6348997046824266</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
+      <c r="A4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4">
+        <v>2</v>
+      </c>
+      <c r="F4">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G4">
+        <v>0.08438133333333332</v>
+      </c>
+      <c r="H4">
+        <v>0.253144</v>
+      </c>
+      <c r="I4">
+        <v>0.2730802215761681</v>
+      </c>
+      <c r="J4">
+        <v>0.2730802215761681</v>
+      </c>
+      <c r="K4">
+        <v>2</v>
+      </c>
+      <c r="L4">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M4">
+        <v>0.2689956666666667</v>
+      </c>
+      <c r="N4">
+        <v>0.806987</v>
+      </c>
+      <c r="O4">
+        <v>0.1265890356442505</v>
+      </c>
+      <c r="P4">
+        <v>0.1265890356442505</v>
+      </c>
+      <c r="Q4">
+        <v>0.02269821301422222</v>
+      </c>
+      <c r="R4">
+        <v>0.204283917128</v>
+      </c>
+      <c r="S4">
+        <v>0.03456896190284538</v>
+      </c>
+      <c r="T4">
+        <v>0.03456896190284538</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
+      <c r="A5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E5">
+        <v>2</v>
+      </c>
+      <c r="F5">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G5">
+        <v>0.08438133333333332</v>
+      </c>
+      <c r="H5">
+        <v>0.253144</v>
+      </c>
+      <c r="I5">
+        <v>0.2730802215761681</v>
+      </c>
+      <c r="J5">
+        <v>0.2730802215761681</v>
+      </c>
+      <c r="K5">
+        <v>3</v>
+      </c>
+      <c r="L5">
+        <v>1</v>
+      </c>
+      <c r="M5">
+        <v>1.855956666666666</v>
+      </c>
+      <c r="N5">
+        <v>5.567869999999999</v>
+      </c>
+      <c r="O5">
+        <v>0.8734109643557494</v>
+      </c>
+      <c r="P5">
+        <v>0.8734109643557494</v>
+      </c>
+      <c r="Q5">
+        <v>0.1566080981422222</v>
+      </c>
+      <c r="R5">
+        <v>1.40947288328</v>
+      </c>
+      <c r="S5">
+        <v>0.2385112596733227</v>
+      </c>
+      <c r="T5">
+        <v>0.2385112596733227</v>
       </c>
     </row>
   </sheetData>
